--- a/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
+++ b/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518F01C8-BC84-466E-A70B-262A27FE8EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D3020D-4551-4060-AF56-27C790302483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="218">
   <si>
     <t>Field_Name</t>
   </si>
@@ -404,9 +404,6 @@
     <t>total_other_expenses</t>
   </si>
   <si>
-    <t>Formula</t>
-  </si>
-  <si>
     <t>other_expenses+power_and_fuel+administrative_expenses+payment_to_auditors+selling_expenses+insurance_expenses</t>
   </si>
   <si>
@@ -611,9 +608,6 @@
     <t>membership_number</t>
   </si>
   <si>
-    <t>MEMBERSHIP_NO</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -678,6 +672,9 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>DPIN_INTPAN_MEM</t>
   </si>
 </sst>
 </file>
@@ -2191,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3682,7 +3679,7 @@
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>102</v>
@@ -3709,7 +3706,7 @@
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>105</v>
@@ -3736,7 +3733,7 @@
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>107</v>
@@ -3763,7 +3760,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>109</v>
@@ -3790,7 +3787,7 @@
         <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>111</v>
@@ -3817,7 +3814,7 @@
         <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>113</v>
@@ -3844,7 +3841,7 @@
         <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>115</v>
@@ -3871,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>117</v>
@@ -3898,7 +3895,7 @@
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>119</v>
@@ -3925,7 +3922,7 @@
         <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>122</v>
@@ -3952,7 +3949,7 @@
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>125</v>
@@ -3979,10 +3976,10 @@
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="29" t="s">
         <v>127</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>128</v>
       </c>
       <c r="F72" s="19" t="s">
         <v>14</v>
@@ -3997,7 +3994,7 @@
     </row>
     <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
@@ -4006,10 +4003,10 @@
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F73" s="19" t="s">
         <v>14</v>
@@ -4018,13 +4015,13 @@
         <v>103</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>9</v>
@@ -4033,10 +4030,10 @@
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F74" s="19" t="s">
         <v>14</v>
@@ -4045,13 +4042,13 @@
         <v>103</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>9</v>
@@ -4060,10 +4057,10 @@
         <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F75" s="19" t="s">
         <v>14</v>
@@ -4072,13 +4069,13 @@
         <v>103</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>9</v>
@@ -4087,10 +4084,10 @@
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F76" s="19" t="s">
         <v>14</v>
@@ -4099,13 +4096,13 @@
         <v>103</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
@@ -4114,10 +4111,10 @@
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F77" s="19" t="s">
         <v>14</v>
@@ -4126,13 +4123,13 @@
         <v>103</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
@@ -4141,10 +4138,10 @@
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F78" s="19" t="s">
         <v>14</v>
@@ -4153,13 +4150,13 @@
         <v>103</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -4168,10 +4165,10 @@
         <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" s="19" t="s">
         <v>14</v>
@@ -4180,13 +4177,13 @@
         <v>103</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
@@ -4195,10 +4192,10 @@
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F80" s="21" t="s">
         <v>14</v>
@@ -4207,7 +4204,7 @@
         <v>103</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I80" s="5"/>
     </row>
@@ -4226,7 +4223,7 @@
     </row>
     <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -4248,10 +4245,10 @@
         <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F83" s="17" t="s">
         <v>14</v>
@@ -4275,10 +4272,10 @@
         <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F84" s="19" t="s">
         <v>14</v>
@@ -4302,10 +4299,10 @@
         <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F85" s="19" t="s">
         <v>14</v>
@@ -4329,10 +4326,10 @@
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>14</v>
@@ -4356,10 +4353,10 @@
         <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>14</v>
@@ -4383,10 +4380,10 @@
         <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F88" s="19" t="s">
         <v>14</v>
@@ -4395,7 +4392,7 @@
         <v>103</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I88" s="5"/>
     </row>
@@ -4410,10 +4407,10 @@
         <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>14</v>
@@ -4422,7 +4419,7 @@
         <v>103</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I89" s="5"/>
     </row>
@@ -4437,10 +4434,10 @@
         <v>21</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F90" s="19" t="s">
         <v>14</v>
@@ -4449,7 +4446,7 @@
         <v>103</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I90" s="5"/>
     </row>
@@ -4464,10 +4461,10 @@
         <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F91" s="19" t="s">
         <v>14</v>
@@ -4491,10 +4488,10 @@
         <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F92" s="19" t="s">
         <v>14</v>
@@ -4518,10 +4515,10 @@
         <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F93" s="19" t="s">
         <v>14</v>
@@ -4530,7 +4527,7 @@
         <v>103</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I93" s="5"/>
     </row>
@@ -4545,10 +4542,10 @@
         <v>21</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="29" t="s">
         <v>127</v>
-      </c>
-      <c r="E94" s="29" t="s">
-        <v>128</v>
       </c>
       <c r="F94" s="19" t="s">
         <v>14</v>
@@ -4563,7 +4560,7 @@
     </row>
     <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>9</v>
@@ -4572,10 +4569,10 @@
         <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F95" s="19" t="s">
         <v>14</v>
@@ -4584,13 +4581,13 @@
         <v>103</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I95" s="5"/>
     </row>
     <row r="96" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>9</v>
@@ -4599,10 +4596,10 @@
         <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F96" s="19" t="s">
         <v>14</v>
@@ -4611,13 +4608,13 @@
         <v>103</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I96" s="5"/>
     </row>
     <row r="97" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>9</v>
@@ -4626,10 +4623,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F97" s="19" t="s">
         <v>14</v>
@@ -4638,13 +4635,13 @@
         <v>103</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>9</v>
@@ -4653,10 +4650,10 @@
         <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F98" s="19" t="s">
         <v>14</v>
@@ -4665,13 +4662,13 @@
         <v>103</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
@@ -4680,10 +4677,10 @@
         <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F99" s="19" t="s">
         <v>14</v>
@@ -4692,13 +4689,13 @@
         <v>103</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>9</v>
@@ -4707,10 +4704,10 @@
         <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F100" s="19" t="s">
         <v>14</v>
@@ -4719,13 +4716,13 @@
         <v>103</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>9</v>
@@ -4734,10 +4731,10 @@
         <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E101" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F101" s="19" t="s">
         <v>14</v>
@@ -4746,13 +4743,13 @@
         <v>103</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>9</v>
@@ -4761,10 +4758,10 @@
         <v>21</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F102" s="19" t="s">
         <v>14</v>
@@ -4773,13 +4770,13 @@
         <v>103</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I102" s="5"/>
     </row>
     <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4792,7 +4789,7 @@
     </row>
     <row r="104" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>9</v>
@@ -4804,22 +4801,22 @@
         <v>25</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="F104" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="33" t="s">
-        <v>169</v>
-      </c>
       <c r="H104" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>9</v>
@@ -4831,22 +4828,22 @@
         <v>25</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F105" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G105" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="H105" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>9</v>
@@ -4858,22 +4855,22 @@
         <v>25</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F106" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I106" s="5"/>
     </row>
     <row r="107" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
@@ -4885,22 +4882,22 @@
         <v>25</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F107" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>9</v>
@@ -4912,22 +4909,22 @@
         <v>25</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F108" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>9</v>
@@ -4939,22 +4936,22 @@
         <v>25</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F109" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G109" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4967,7 +4964,7 @@
     </row>
     <row r="111" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>9</v>
@@ -4979,22 +4976,22 @@
         <v>25</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F111" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>9</v>
@@ -5006,22 +5003,22 @@
         <v>25</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F112" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G112" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="H112" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="I112" s="5"/>
     </row>
     <row r="113" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>9</v>
@@ -5033,22 +5030,22 @@
         <v>25</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F113" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I113" s="5"/>
     </row>
     <row r="114" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>9</v>
@@ -5060,22 +5057,22 @@
         <v>25</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F114" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G114" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I114" s="5"/>
     </row>
     <row r="115" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
@@ -5087,22 +5084,22 @@
         <v>25</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F115" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>9</v>
@@ -5114,16 +5111,16 @@
         <v>25</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F116" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G116" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I116" s="5"/>
     </row>
@@ -5140,7 +5137,7 @@
     </row>
     <row r="118" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -5153,7 +5150,7 @@
     </row>
     <row r="119" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>9</v>
@@ -5165,24 +5162,24 @@
         <v>25</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="F119" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" s="37" t="s">
+      <c r="H119" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I119" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
@@ -5194,22 +5191,22 @@
         <v>25</v>
       </c>
       <c r="E120" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H120" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="F120" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
@@ -5221,22 +5218,22 @@
         <v>25</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F121" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G121" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>9</v>
@@ -5248,24 +5245,24 @@
         <v>25</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F122" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I122" s="54" t="s">
         <v>199</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="I122" s="54" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
@@ -5277,22 +5274,22 @@
         <v>25</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F123" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G123" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I123" s="55"/>
     </row>
     <row r="124" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>9</v>
@@ -5304,22 +5301,22 @@
         <v>25</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F124" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G124" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I124" s="55"/>
     </row>
     <row r="125" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>9</v>
@@ -5331,22 +5328,22 @@
         <v>25</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F125" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G125" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I125" s="55"/>
     </row>
     <row r="126" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
@@ -5358,22 +5355,22 @@
         <v>25</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F126" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G126" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I126" s="55"/>
     </row>
     <row r="127" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
@@ -5385,16 +5382,16 @@
         <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F127" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G127" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I127" s="55"/>
     </row>
@@ -5501,11 +5498,11 @@
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C7" s="47"/>
       <c r="D7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="48">
         <v>8947039344</v>
@@ -5514,11 +5511,11 @@
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E8" s="48">
         <v>5722478949</v>
@@ -5527,11 +5524,11 @@
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E9" s="48">
         <v>1766681427</v>
@@ -5540,7 +5537,7 @@
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="2" t="s">
@@ -5553,7 +5550,7 @@
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="2" t="s">
@@ -5566,11 +5563,11 @@
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="48">
         <v>2379307763</v>
@@ -5579,11 +5576,11 @@
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E13" s="45">
         <v>45145075</v>
@@ -5592,11 +5589,11 @@
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="42"/>
       <c r="B14" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="45">
         <v>2334162688</v>
@@ -5605,24 +5602,24 @@
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42"/>
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42"/>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="45">
         <v>2334162688</v>
@@ -5631,11 +5628,11 @@
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="45">
         <v>815650000</v>
@@ -5656,7 +5653,7 @@
       <c r="C19" s="43"/>
       <c r="D19" s="40"/>
       <c r="E19" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5665,7 +5662,7 @@
       <c r="C20" s="43"/>
       <c r="D20" s="40"/>
       <c r="E20" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
+++ b/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D3020D-4551-4060-AF56-27C790302483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E6CAAC-C810-4FAF-A670-6CCDC2B69C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="216">
   <si>
     <t>Field_Name</t>
   </si>
@@ -596,16 +596,10 @@
     <t>if it is auditor then only capture below fields</t>
   </si>
   <si>
-    <t>auditor_name</t>
-  </si>
-  <si>
     <t>NAME_DPAR_AR_AU</t>
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>membership_number</t>
   </si>
   <si>
     <t>id</t>
@@ -2188,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5179,7 +5173,7 @@
     </row>
     <row r="120" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
@@ -5191,7 +5185,7 @@
         <v>25</v>
       </c>
       <c r="E120" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F120" s="19" t="s">
         <v>14</v>
@@ -5200,13 +5194,13 @@
         <v>189</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
@@ -5218,7 +5212,7 @@
         <v>25</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F121" s="19" t="s">
         <v>14</v>
@@ -5227,13 +5221,13 @@
         <v>189</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>9</v>
@@ -5245,7 +5239,7 @@
         <v>25</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F122" s="19" t="s">
         <v>14</v>
@@ -5254,15 +5248,15 @@
         <v>189</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I122" s="54" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
@@ -5274,7 +5268,7 @@
         <v>25</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F123" s="19" t="s">
         <v>14</v>
@@ -5283,13 +5277,13 @@
         <v>189</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I123" s="55"/>
     </row>
     <row r="124" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>9</v>
@@ -5301,7 +5295,7 @@
         <v>25</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F124" s="19" t="s">
         <v>14</v>
@@ -5310,13 +5304,13 @@
         <v>189</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I124" s="55"/>
     </row>
     <row r="125" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>9</v>
@@ -5328,7 +5322,7 @@
         <v>25</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F125" s="19" t="s">
         <v>14</v>
@@ -5337,13 +5331,13 @@
         <v>189</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I125" s="55"/>
     </row>
     <row r="126" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
@@ -5355,7 +5349,7 @@
         <v>25</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F126" s="19" t="s">
         <v>14</v>
@@ -5364,13 +5358,13 @@
         <v>189</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I126" s="55"/>
     </row>
     <row r="127" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
@@ -5382,7 +5376,7 @@
         <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F127" s="19" t="s">
         <v>14</v>
@@ -5391,7 +5385,7 @@
         <v>189</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I127" s="55"/>
     </row>
@@ -5498,7 +5492,7 @@
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42"/>
       <c r="B7" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" s="47"/>
       <c r="D7" s="2" t="s">
@@ -5511,7 +5505,7 @@
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42"/>
       <c r="B8" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="2" t="s">
@@ -5524,7 +5518,7 @@
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42"/>
       <c r="B9" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="2" t="s">
@@ -5537,7 +5531,7 @@
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="2" t="s">
@@ -5550,7 +5544,7 @@
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="2" t="s">
@@ -5563,7 +5557,7 @@
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="2" t="s">
@@ -5609,7 +5603,7 @@
         <v>136</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5653,7 +5647,7 @@
       <c r="C19" s="43"/>
       <c r="D19" s="40"/>
       <c r="E19" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5662,7 +5656,7 @@
       <c r="C20" s="43"/>
       <c r="D20" s="40"/>
       <c r="E20" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
+++ b/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E6CAAC-C810-4FAF-A670-6CCDC2B69C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D99C9D-D764-4A85-A7AB-0AEAAF8388BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="232">
   <si>
     <t>Field_Name</t>
   </si>
@@ -446,9 +446,6 @@
     <t>profit_before_tax</t>
   </si>
   <si>
-    <t>not able to get from xml</t>
-  </si>
-  <si>
     <t>income_tax</t>
   </si>
   <si>
@@ -669,13 +666,64 @@
   </si>
   <si>
     <t>DPIN_INTPAN_MEM</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>consumption_of_stores_and_spare_parts</t>
+  </si>
+  <si>
+    <t>CON_STR_SPR_PART</t>
+  </si>
+  <si>
+    <t>total_expenses</t>
+  </si>
+  <si>
+    <t>CON_STR_PART_PR</t>
+  </si>
+  <si>
+    <t>total_income</t>
+  </si>
+  <si>
+    <t>total_income-total_expenses</t>
+  </si>
+  <si>
+    <t>provision_for_tax</t>
+  </si>
+  <si>
+    <t>profit_after_tax</t>
+  </si>
+  <si>
+    <t>profit_before_tax-provision_for_tax</t>
+  </si>
+  <si>
+    <t>firm_registration_number</t>
+  </si>
+  <si>
+    <t>auditor_firm_name</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>increase_or_decrease_in_stocks</t>
+  </si>
+  <si>
+    <t>total_cost_of_materials_consumed+total_purchases_of_stock_in_trade+consumption_of_stores_and_spare_parts+power_and_fuel+total_employee_benefit_expense+administrative_expenses+payment_to_auditors+selling_expenses +insurance_expenses+depreciation+interest+other_expenses</t>
+  </si>
+  <si>
+    <t>total_cost_of_materials_consumed+total_purchases_of_stock_in_trade+consumption_of_stores_and_spare_parts+power_and_fuel+total_employee_benefit_expense+administrative_expenses+payment_to_auditors+selling_expenses+insurance_expenses+depreciation+interest+other_expenses</t>
+  </si>
+  <si>
+    <t>sale_of_goods_manufactured_domestic+sale_of_goods_traded_domestic+sale_or_supply_of_services_domestic+sale_of_goods_manufactured_export+sale_of_goods_traded_export+sale_or_supply_of_services_export+other_income+increase_or_decrease_in_stocks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -707,8 +755,33 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,12 +808,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -943,11 +1028,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -996,7 +1161,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,6 +1208,49 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2180,15 +2387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B123" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
     <col min="3" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" style="1" customWidth="1"/>
@@ -3770,7 +3977,7 @@
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>110</v>
       </c>
@@ -3797,7 +4004,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>112</v>
       </c>
@@ -3824,7 +4031,7 @@
       </c>
       <c r="I66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>114</v>
       </c>
@@ -3851,7 +4058,7 @@
       </c>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>116</v>
       </c>
@@ -3878,7 +4085,7 @@
       </c>
       <c r="I68" s="5"/>
     </row>
-    <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>118</v>
       </c>
@@ -3905,7 +4112,7 @@
       </c>
       <c r="I69" s="5"/>
     </row>
-    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>121</v>
       </c>
@@ -3932,7 +4139,7 @@
       </c>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>124</v>
       </c>
@@ -3959,36 +4166,36 @@
       </c>
       <c r="I71" s="5"/>
     </row>
-    <row r="72" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H72" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="J72" s="56"/>
+    </row>
+    <row r="73" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>9</v>
@@ -3997,10 +4204,10 @@
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>129</v>
+        <v>215</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="F73" s="19" t="s">
         <v>14</v>
@@ -4009,13 +4216,13 @@
         <v>103</v>
       </c>
       <c r="H73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>9</v>
@@ -4024,10 +4231,10 @@
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>131</v>
+        <v>215</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="F74" s="19" t="s">
         <v>14</v>
@@ -4035,14 +4242,14 @@
       <c r="G74" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H74" s="10" t="s">
+      <c r="H74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>9</v>
@@ -4054,7 +4261,7 @@
         <v>25</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F75" s="19" t="s">
         <v>14</v>
@@ -4063,13 +4270,13 @@
         <v>103</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>9</v>
@@ -4080,8 +4287,8 @@
       <c r="D76" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="29" t="s">
-        <v>135</v>
+      <c r="E76" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="F76" s="19" t="s">
         <v>14</v>
@@ -4089,14 +4296,15 @@
       <c r="G76" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>134</v>
+      <c r="H76" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
@@ -4108,7 +4316,7 @@
         <v>25</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F77" s="19" t="s">
         <v>14</v>
@@ -4117,13 +4325,13 @@
         <v>103</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I77" s="5"/>
     </row>
-    <row r="78" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>138</v>
+    <row r="78" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
@@ -4132,10 +4340,10 @@
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>139</v>
+        <v>215</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="F78" s="19" t="s">
         <v>14</v>
@@ -4143,14 +4351,14 @@
       <c r="G78" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H78" s="8" t="s">
-        <v>138</v>
+      <c r="H78" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -4161,8 +4369,8 @@
       <c r="D79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="30" t="s">
-        <v>141</v>
+      <c r="E79" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="F79" s="19" t="s">
         <v>14</v>
@@ -4171,13 +4379,13 @@
         <v>103</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>142</v>
+    <row r="80" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
@@ -4186,105 +4394,105 @@
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F80" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I80" s="5"/>
+    </row>
+    <row r="81" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H82" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="J82" s="56"/>
+    </row>
+    <row r="83" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="F80" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F83" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>9</v>
@@ -4296,22 +4504,22 @@
         <v>25</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="18" t="s">
         <v>103</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>9</v>
@@ -4323,7 +4531,7 @@
         <v>25</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>14</v>
@@ -4332,13 +4540,13 @@
         <v>103</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>9</v>
@@ -4350,7 +4558,7 @@
         <v>25</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>14</v>
@@ -4359,13 +4567,13 @@
         <v>103</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
-        <v>112</v>
+    <row r="88" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>9</v>
@@ -4377,7 +4585,7 @@
         <v>25</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F88" s="19" t="s">
         <v>14</v>
@@ -4385,14 +4593,14 @@
       <c r="G88" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H88" s="2" t="s">
-        <v>151</v>
+      <c r="H88" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="28" t="s">
-        <v>114</v>
+    <row r="89" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>9</v>
@@ -4404,7 +4612,7 @@
         <v>25</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>14</v>
@@ -4412,14 +4620,14 @@
       <c r="G89" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H89" s="2" t="s">
-        <v>153</v>
+      <c r="H89" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>9</v>
@@ -4431,7 +4639,7 @@
         <v>25</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F90" s="19" t="s">
         <v>14</v>
@@ -4440,13 +4648,13 @@
         <v>103</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>9</v>
@@ -4458,7 +4666,7 @@
         <v>25</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F91" s="19" t="s">
         <v>14</v>
@@ -4467,13 +4675,13 @@
         <v>103</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>9</v>
@@ -4485,7 +4693,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F92" s="19" t="s">
         <v>14</v>
@@ -4494,13 +4702,13 @@
         <v>103</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
@@ -4512,7 +4720,7 @@
         <v>25</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F93" s="19" t="s">
         <v>14</v>
@@ -4521,13 +4729,13 @@
         <v>103</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>126</v>
+    <row r="94" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="28" t="s">
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
@@ -4538,8 +4746,8 @@
       <c r="D94" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E94" s="29" t="s">
-        <v>127</v>
+      <c r="E94" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="F94" s="19" t="s">
         <v>14</v>
@@ -4548,13 +4756,13 @@
         <v>103</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>128</v>
+    <row r="95" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>9</v>
@@ -4565,8 +4773,8 @@
       <c r="D95" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>129</v>
+      <c r="E95" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="F95" s="19" t="s">
         <v>14</v>
@@ -4575,40 +4783,40 @@
         <v>103</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B96" s="2" t="s">
+    <row r="96" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F96" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="20" t="s">
+      <c r="D96" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="F96" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="H96" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H96" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="J96" s="56"/>
+    </row>
+    <row r="97" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>9</v>
@@ -4617,10 +4825,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>161</v>
+        <v>215</v>
+      </c>
+      <c r="E97" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="F97" s="19" t="s">
         <v>14</v>
@@ -4628,14 +4836,14 @@
       <c r="G97" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H97" s="10" t="s">
-        <v>132</v>
+      <c r="H97" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>9</v>
@@ -4644,10 +4852,10 @@
         <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>162</v>
+        <v>215</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="F98" s="19" t="s">
         <v>14</v>
@@ -4656,13 +4864,13 @@
         <v>103</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
@@ -4674,7 +4882,7 @@
         <v>25</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F99" s="19" t="s">
         <v>14</v>
@@ -4683,40 +4891,41 @@
         <v>103</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I99" s="5"/>
     </row>
-    <row r="100" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="2" t="s">
+    <row r="100" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="20" t="s">
+      <c r="D100" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F100" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="H100" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H100" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>9</v>
@@ -4727,8 +4936,8 @@
       <c r="D101" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E101" s="30" t="s">
-        <v>141</v>
+      <c r="E101" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="F101" s="19" t="s">
         <v>14</v>
@@ -4737,13 +4946,13 @@
         <v>103</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>9</v>
@@ -4752,10 +4961,10 @@
         <v>21</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>164</v>
+        <v>215</v>
+      </c>
+      <c r="E102" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="F102" s="19" t="s">
         <v>14</v>
@@ -4763,135 +4972,135 @@
       <c r="G102" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="H102" s="10" t="s">
-        <v>142</v>
+      <c r="H102" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="I102" s="5"/>
     </row>
-    <row r="103" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="15" t="s">
+    <row r="103" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F106" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H106" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="J106" s="56"/>
+    </row>
+    <row r="107" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="32"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F104" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>9</v>
@@ -4903,22 +5112,22 @@
         <v>25</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F108" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="G108" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>9</v>
@@ -4930,170 +5139,170 @@
         <v>25</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="111" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F111" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F112" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F114" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="H114" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="J114" s="56"/>
+    </row>
+    <row r="115" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F109" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F111" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F112" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F113" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H113" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I113" s="5"/>
-    </row>
-    <row r="114" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F114" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="I114" s="5"/>
-    </row>
-    <row r="115" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F115" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>175</v>
-      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
       <c r="I115" s="5"/>
     </row>
-    <row r="116" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>9</v>
@@ -5105,185 +5314,197 @@
         <v>25</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F116" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F122" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="H122" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="J122" s="56"/>
+    </row>
+    <row r="123" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F116" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="35" t="s">
         <v>186</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E120" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="F120" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="I120" s="5"/>
-    </row>
-    <row r="121" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="I121" s="5"/>
-    </row>
-    <row r="122" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I122" s="54" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F123" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I123" s="55"/>
-    </row>
-    <row r="124" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>9</v>
@@ -5295,22 +5516,24 @@
         <v>25</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F124" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F124" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="I124" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="H124" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I124" s="55"/>
-    </row>
-    <row r="125" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>9</v>
@@ -5321,23 +5544,23 @@
       <c r="D125" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>203</v>
+      <c r="E125" s="37" t="s">
+        <v>190</v>
       </c>
       <c r="F125" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="39" t="s">
-        <v>189</v>
+      <c r="G125" s="38" t="s">
+        <v>188</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I125" s="55"/>
-    </row>
-    <row r="126" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
@@ -5349,22 +5572,22 @@
         <v>25</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F126" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G126" s="39" t="s">
-        <v>189</v>
+      <c r="G126" s="38" t="s">
+        <v>188</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I126" s="55"/>
-    </row>
-    <row r="127" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
@@ -5376,22 +5599,402 @@
         <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F127" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="39" t="s">
-        <v>189</v>
+      <c r="G127" s="38" t="s">
+        <v>188</v>
       </c>
       <c r="H127" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I127" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="I127" s="55"/>
+    </row>
+    <row r="128" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F128" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I128" s="79"/>
+    </row>
+    <row r="129" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F129" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I129" s="79"/>
+    </row>
+    <row r="130" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I130" s="79"/>
+    </row>
+    <row r="131" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F131" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I131" s="79"/>
+    </row>
+    <row r="132" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F132" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I132" s="79"/>
+    </row>
+    <row r="133" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="E133" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H133" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="I133" s="74"/>
+    </row>
+    <row r="134" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="E134" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="F134" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="H134" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="I134" s="74"/>
+    </row>
+    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B135" s="56"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="56"/>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="56"/>
+      <c r="H135" s="56"/>
+      <c r="I135" s="56"/>
+      <c r="J135" s="56"/>
+    </row>
+    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="E136" s="66" t="s">
+        <v>221</v>
+      </c>
+      <c r="F136" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="H136" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="J136" s="56"/>
+    </row>
+    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B137" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F137" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="H137" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="J137" s="56"/>
+    </row>
+    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B138" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="E138" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="F138" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="H138" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="J138" s="56"/>
+    </row>
+    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="56"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="56"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="56"/>
+      <c r="G139" s="56"/>
+      <c r="H139" s="56"/>
+      <c r="J139" s="56"/>
+    </row>
+    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E140" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="F140" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H140" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="J140" s="56"/>
+    </row>
+    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B141" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="F141" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H141" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="J141" s="56"/>
+    </row>
+    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B142" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E142" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="F142" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="H142" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="J142" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I122:I127"/>
+    <mergeCell ref="I127:I132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5418,351 +6021,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="44">
         <v>16436199720</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="44">
         <v>14669518293</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="47">
+        <v>8947039344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="48">
-        <v>8947039344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="28" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="47">
+        <v>5722478949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="48">
-        <v>5722478949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="28" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="47">
+        <v>1766681427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="48">
-        <v>1766681427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <v>656654177</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="47"/>
+        <v>211</v>
+      </c>
+      <c r="C11" s="46"/>
       <c r="D11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="47">
         <v>44027841</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="47"/>
+        <v>212</v>
+      </c>
+      <c r="C12" s="46"/>
       <c r="D12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="48">
+        <v>158</v>
+      </c>
+      <c r="E12" s="47">
         <v>2379307763</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="49" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <v>45145075</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>2334162688</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>214</v>
+      <c r="E15" s="43" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="44">
         <v>2334162688</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="45">
+        <v>141</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="44">
         <v>815650000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="45">
+      <c r="A18" s="41"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="44">
         <v>1518512688</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="44" t="s">
-        <v>214</v>
+      <c r="A19" s="41"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="43" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="44" t="s">
-        <v>214</v>
+      <c r="C20" s="42"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="43" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="40"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="40"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="40"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="40"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="40"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
+++ b/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D99C9D-D764-4A85-A7AB-0AEAAF8388BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CDA9FC-2DC5-4210-958D-83B6C0E121BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$142</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="231">
   <si>
     <t>Field_Name</t>
   </si>
@@ -410,9 +413,6 @@
     <t>operating_profit</t>
   </si>
   <si>
-    <t xml:space="preserve">net_revenue </t>
-  </si>
-  <si>
     <t>other_income</t>
   </si>
   <si>
@@ -428,9 +428,6 @@
     <t>profit_before_interest_and_tax</t>
   </si>
   <si>
-    <t>net_revenue-total_cost_of_materials_consumed+total_purchases_of_stock_in_trade+total_changes_in_inventories_or_finished_goods+total_employee_benefit_expense+total_other_expenses+depreciation</t>
-  </si>
-  <si>
     <t>interest</t>
   </si>
   <si>
@@ -506,9 +503,6 @@
     <t>DEP_AMRT_EXP_PR</t>
   </si>
   <si>
-    <t>net_revenue-total_cost_of_materials_consumed+total_purchases_of_stock_in_trade+total_changes_in_inventories_or_finished_goods+ total_employee_benefit_expense+total_other_expenses+depreciation</t>
-  </si>
-  <si>
     <t>INTEREST_PR</t>
   </si>
   <si>
@@ -686,18 +680,12 @@
     <t>total_income</t>
   </si>
   <si>
-    <t>total_income-total_expenses</t>
-  </si>
-  <si>
     <t>provision_for_tax</t>
   </si>
   <si>
     <t>profit_after_tax</t>
   </si>
   <si>
-    <t>profit_before_tax-provision_for_tax</t>
-  </si>
-  <si>
     <t>firm_registration_number</t>
   </si>
   <si>
@@ -717,6 +705,18 @@
   </si>
   <si>
     <t>sale_of_goods_manufactured_domestic+sale_of_goods_traded_domestic+sale_or_supply_of_services_domestic+sale_of_goods_manufactured_export+sale_of_goods_traded_export+sale_or_supply_of_services_export+other_income+increase_or_decrease_in_stocks</t>
+  </si>
+  <si>
+    <t>operating_profit+other_income-depreciation</t>
+  </si>
+  <si>
+    <t>net_revenue-total_cost_of_materials_consumed-total_purchases_of_stock_in_trade-total_changes_in_inventories_or_finished_goods-total_employee_benefit_expense-total_other_expenses</t>
+  </si>
+  <si>
+    <t>profit_before_tax_and_exceptional_items_before_tax-exceptional_items_before_tax</t>
+  </si>
+  <si>
+    <t>profit_before_tax-income_tax</t>
   </si>
 </sst>
 </file>
@@ -2389,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B123" workbookViewId="0">
-      <selection activeCell="H134" sqref="H134"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="72" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B72" s="55" t="s">
         <v>9</v>
@@ -4180,7 +4180,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F72" s="57" t="s">
         <v>14</v>
@@ -4189,7 +4189,7 @@
         <v>103</v>
       </c>
       <c r="H72" s="58" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J72" s="56"/>
     </row>
@@ -4204,7 +4204,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>127</v>
@@ -4231,10 +4231,10 @@
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="F74" s="19" t="s">
         <v>14</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="75" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>9</v>
@@ -4261,7 +4261,7 @@
         <v>25</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F75" s="19" t="s">
         <v>14</v>
@@ -4270,13 +4270,13 @@
         <v>103</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>9</v>
@@ -4297,14 +4297,14 @@
         <v>103</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
@@ -4316,7 +4316,7 @@
         <v>25</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F77" s="19" t="s">
         <v>14</v>
@@ -4325,13 +4325,13 @@
         <v>103</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
@@ -4340,10 +4340,10 @@
         <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="F78" s="19" t="s">
         <v>14</v>
@@ -4352,13 +4352,13 @@
         <v>103</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>9</v>
@@ -4370,7 +4370,7 @@
         <v>25</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F79" s="19" t="s">
         <v>14</v>
@@ -4379,13 +4379,13 @@
         <v>103</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
@@ -4394,10 +4394,10 @@
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F80" s="19" t="s">
         <v>14</v>
@@ -4406,13 +4406,13 @@
         <v>103</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>9</v>
@@ -4424,7 +4424,7 @@
         <v>25</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F81" s="21" t="s">
         <v>14</v>
@@ -4433,13 +4433,13 @@
         <v>103</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B82" s="55" t="s">
         <v>9</v>
@@ -4448,10 +4448,10 @@
         <v>16</v>
       </c>
       <c r="D82" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F82" s="57" t="s">
         <v>14</v>
@@ -4460,7 +4460,7 @@
         <v>103</v>
       </c>
       <c r="H82" s="55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J82" s="56"/>
     </row>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="84" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -4504,7 +4504,7 @@
         <v>25</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>14</v>
@@ -4531,7 +4531,7 @@
         <v>25</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F86" s="19" t="s">
         <v>14</v>
@@ -4558,7 +4558,7 @@
         <v>25</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>14</v>
@@ -4585,7 +4585,7 @@
         <v>25</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F88" s="19" t="s">
         <v>14</v>
@@ -4612,7 +4612,7 @@
         <v>25</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>14</v>
@@ -4639,7 +4639,7 @@
         <v>25</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F90" s="19" t="s">
         <v>14</v>
@@ -4648,7 +4648,7 @@
         <v>103</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I90" s="5"/>
     </row>
@@ -4666,7 +4666,7 @@
         <v>25</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F91" s="19" t="s">
         <v>14</v>
@@ -4675,7 +4675,7 @@
         <v>103</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I91" s="5"/>
     </row>
@@ -4693,7 +4693,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F92" s="19" t="s">
         <v>14</v>
@@ -4702,7 +4702,7 @@
         <v>103</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I92" s="5"/>
     </row>
@@ -4720,7 +4720,7 @@
         <v>25</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F93" s="19" t="s">
         <v>14</v>
@@ -4747,7 +4747,7 @@
         <v>25</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F94" s="19" t="s">
         <v>14</v>
@@ -4774,7 +4774,7 @@
         <v>25</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F95" s="19" t="s">
         <v>14</v>
@@ -4783,13 +4783,13 @@
         <v>103</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I95" s="5"/>
     </row>
     <row r="96" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B96" s="55" t="s">
         <v>9</v>
@@ -4801,7 +4801,7 @@
         <v>25</v>
       </c>
       <c r="E96" s="55" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F96" s="57" t="s">
         <v>14</v>
@@ -4810,7 +4810,7 @@
         <v>103</v>
       </c>
       <c r="H96" s="58" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J96" s="56"/>
     </row>
@@ -4825,7 +4825,7 @@
         <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E97" s="29" t="s">
         <v>127</v>
@@ -4852,10 +4852,10 @@
         <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="F98" s="19" t="s">
         <v>14</v>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="99" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>9</v>
@@ -4882,7 +4882,7 @@
         <v>25</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F99" s="19" t="s">
         <v>14</v>
@@ -4891,13 +4891,13 @@
         <v>103</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>9</v>
@@ -4909,7 +4909,7 @@
         <v>25</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F100" s="75" t="s">
         <v>14</v>
@@ -4918,14 +4918,14 @@
         <v>103</v>
       </c>
       <c r="H100" s="25" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
     </row>
     <row r="101" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>9</v>
@@ -4937,7 +4937,7 @@
         <v>25</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F101" s="19" t="s">
         <v>14</v>
@@ -4946,13 +4946,13 @@
         <v>103</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>9</v>
@@ -4961,10 +4961,10 @@
         <v>21</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="F102" s="19" t="s">
         <v>14</v>
@@ -4973,13 +4973,13 @@
         <v>103</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I102" s="5"/>
     </row>
     <row r="103" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>9</v>
@@ -4991,7 +4991,7 @@
         <v>25</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F103" s="19" t="s">
         <v>14</v>
@@ -5000,13 +5000,13 @@
         <v>103</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I103" s="5"/>
     </row>
     <row r="104" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>9</v>
@@ -5015,10 +5015,10 @@
         <v>21</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F104" s="19" t="s">
         <v>14</v>
@@ -5027,13 +5027,13 @@
         <v>103</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>9</v>
@@ -5045,7 +5045,7 @@
         <v>25</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F105" s="19" t="s">
         <v>14</v>
@@ -5054,13 +5054,13 @@
         <v>103</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>9</v>
@@ -5069,10 +5069,10 @@
         <v>21</v>
       </c>
       <c r="D106" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F106" s="57" t="s">
         <v>14</v>
@@ -5081,13 +5081,13 @@
         <v>103</v>
       </c>
       <c r="H106" s="55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J106" s="56"/>
     </row>
     <row r="107" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="108" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>9</v>
@@ -5112,22 +5112,22 @@
         <v>25</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F108" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>9</v>
@@ -5139,22 +5139,22 @@
         <v>25</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F109" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>9</v>
@@ -5166,22 +5166,22 @@
         <v>25</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F110" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G110" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H110" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>9</v>
@@ -5193,22 +5193,22 @@
         <v>25</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F111" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>9</v>
@@ -5220,22 +5220,22 @@
         <v>25</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F112" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I112" s="5"/>
     </row>
     <row r="113" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>9</v>
@@ -5247,22 +5247,22 @@
         <v>25</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F113" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I113" s="5"/>
     </row>
     <row r="114" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B114" s="55" t="s">
         <v>9</v>
@@ -5271,25 +5271,25 @@
         <v>16</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F114" s="57" t="s">
         <v>14</v>
       </c>
       <c r="G114" s="62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H114" s="54" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J114" s="56"/>
     </row>
     <row r="115" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="116" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>9</v>
@@ -5314,22 +5314,22 @@
         <v>25</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F116" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G116" s="34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>9</v>
@@ -5341,22 +5341,22 @@
         <v>25</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F117" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>9</v>
@@ -5368,22 +5368,22 @@
         <v>25</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F118" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G118" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H118" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>9</v>
@@ -5395,22 +5395,22 @@
         <v>25</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F119" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
@@ -5422,22 +5422,22 @@
         <v>25</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F120" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
@@ -5449,22 +5449,22 @@
         <v>25</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F121" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="77" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B122" s="55" t="s">
         <v>9</v>
@@ -5473,25 +5473,25 @@
         <v>21</v>
       </c>
       <c r="D122" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F122" s="57" t="s">
         <v>14</v>
       </c>
       <c r="G122" s="62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H122" s="54" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J122" s="56"/>
     </row>
     <row r="123" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="124" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>9</v>
@@ -5516,24 +5516,24 @@
         <v>25</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F124" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G124" s="36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H124" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I124" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>9</v>
@@ -5545,22 +5545,22 @@
         <v>25</v>
       </c>
       <c r="E125" s="37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F125" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G125" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H125" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
@@ -5572,22 +5572,22 @@
         <v>25</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F126" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G126" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I126" s="5"/>
     </row>
     <row r="127" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
@@ -5599,24 +5599,24 @@
         <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F127" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G127" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I127" s="78" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>9</v>
@@ -5628,22 +5628,22 @@
         <v>25</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F128" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G128" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I128" s="79"/>
     </row>
     <row r="129" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>9</v>
@@ -5655,22 +5655,22 @@
         <v>25</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F129" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G129" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I129" s="79"/>
     </row>
     <row r="130" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>9</v>
@@ -5682,22 +5682,22 @@
         <v>25</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F130" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G130" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I130" s="79"/>
     </row>
     <row r="131" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>9</v>
@@ -5709,22 +5709,22 @@
         <v>25</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F131" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G131" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I131" s="79"/>
     </row>
     <row r="132" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>9</v>
@@ -5736,22 +5736,22 @@
         <v>25</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F132" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G132" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I132" s="79"/>
     </row>
     <row r="133" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="72" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>9</v>
@@ -5760,25 +5760,25 @@
         <v>10</v>
       </c>
       <c r="D133" s="73" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E133" s="73" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F133" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G133" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H133" s="72" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I133" s="74"/>
     </row>
     <row r="134" spans="1:10" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="72" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>9</v>
@@ -5787,19 +5787,19 @@
         <v>10</v>
       </c>
       <c r="D134" s="73" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E134" s="73" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F134" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G134" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H134" s="72" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I134" s="74"/>
     </row>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B136" s="64" t="s">
         <v>9</v>
@@ -5828,10 +5828,10 @@
         <v>16</v>
       </c>
       <c r="D136" s="65" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E136" s="66" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F136" s="67" t="s">
         <v>14</v>
@@ -5840,13 +5840,13 @@
         <v>103</v>
       </c>
       <c r="H136" s="68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J136" s="56"/>
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="53" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B137" s="64" t="s">
         <v>9</v>
@@ -5858,7 +5858,7 @@
         <v>25</v>
       </c>
       <c r="E137" s="65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F137" s="67" t="s">
         <v>14</v>
@@ -5867,13 +5867,13 @@
         <v>103</v>
       </c>
       <c r="H137" s="56" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J137" s="56"/>
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="69" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B138" s="64" t="s">
         <v>9</v>
@@ -5882,10 +5882,10 @@
         <v>16</v>
       </c>
       <c r="D138" s="65" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E138" s="65" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F138" s="67" t="s">
         <v>14</v>
@@ -5894,13 +5894,13 @@
         <v>103</v>
       </c>
       <c r="H138" s="70" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J138" s="56"/>
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140" s="55" t="s">
         <v>9</v>
@@ -5922,10 +5922,10 @@
         <v>21</v>
       </c>
       <c r="D140" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E140" s="61" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F140" s="57" t="s">
         <v>14</v>
@@ -5934,13 +5934,13 @@
         <v>103</v>
       </c>
       <c r="H140" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J140" s="56"/>
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="53" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B141" s="55" t="s">
         <v>9</v>
@@ -5952,7 +5952,7 @@
         <v>25</v>
       </c>
       <c r="E141" s="56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F141" s="57" t="s">
         <v>14</v>
@@ -5961,13 +5961,13 @@
         <v>103</v>
       </c>
       <c r="H141" s="56" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J141" s="56"/>
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="69" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B142" s="55" t="s">
         <v>9</v>
@@ -5976,10 +5976,10 @@
         <v>21</v>
       </c>
       <c r="D142" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E142" s="56" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F142" s="57" t="s">
         <v>14</v>
@@ -5988,11 +5988,12 @@
         <v>103</v>
       </c>
       <c r="H142" s="65" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J142" s="56"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I142" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="I127:I132"/>
   </mergeCells>
@@ -6095,11 +6096,11 @@
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E7" s="47">
         <v>8947039344</v>
@@ -6108,11 +6109,11 @@
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="28" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E8" s="47">
         <v>5722478949</v>
@@ -6121,11 +6122,11 @@
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="28" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E9" s="47">
         <v>1766681427</v>
@@ -6134,7 +6135,7 @@
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="2" t="s">
@@ -6147,7 +6148,7 @@
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="2" t="s">
@@ -6160,11 +6161,11 @@
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" s="47">
         <v>2379307763</v>
@@ -6173,11 +6174,11 @@
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="44">
         <v>45145075</v>
@@ -6186,11 +6187,11 @@
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="44">
         <v>2334162688</v>
@@ -6199,24 +6200,24 @@
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" s="44">
         <v>2334162688</v>
@@ -6225,11 +6226,11 @@
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" s="44">
         <v>815650000</v>
@@ -6250,7 +6251,7 @@
       <c r="C19" s="42"/>
       <c r="D19" s="39"/>
       <c r="E19" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6259,7 +6260,7 @@
       <c r="C20" s="42"/>
       <c r="D20" s="39"/>
       <c r="E20" s="43" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
+++ b/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CDA9FC-2DC5-4210-958D-83B6C0E121BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B85A12A-54C3-4D69-8E7C-33DB1EE0407A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,10 +713,10 @@
     <t>net_revenue-total_cost_of_materials_consumed-total_purchases_of_stock_in_trade-total_changes_in_inventories_or_finished_goods-total_employee_benefit_expense-total_other_expenses</t>
   </si>
   <si>
-    <t>profit_before_tax_and_exceptional_items_before_tax-exceptional_items_before_tax</t>
-  </si>
-  <si>
-    <t>profit_before_tax-income_tax</t>
+    <t>total_income-total_expenses</t>
+  </si>
+  <si>
+    <t>profit_before_tax-provision_for_tax</t>
   </si>
 </sst>
 </file>
@@ -2389,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
+++ b/Config Files/FORM-8(ANNUAL)_nodes_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B85A12A-54C3-4D69-8E7C-33DB1EE0407A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E986DA92-2694-4631-B029-765E9322CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2389,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
